--- a/pred_ohlcv/54_21/2019-11-18 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 IOST ohlcv.xlsx
@@ -6996,7 +6996,7 @@
         <v>-7905438.825927178</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-8109088.197227178</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-8109088.197227178</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-8166316.192527178</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-8166316.192527178</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-8398527.025327178</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-8398527.025327178</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-8400688.025327178</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-8400688.025327178</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-8423771.499227177</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-8472646.482927177</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-8473790.461527176</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-8531068.842127176</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-8680931.922427176</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-8670931.922427176</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-8627678.455427175</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-8727198.555727175</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-8727198.555727175</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-8702653.340037456</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-8702653.340037456</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-8745635.796037456</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-8772893.551737456</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-9117217.701037455</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-9124021.074937455</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-9205833.792437455</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-8969088.042937454</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7144225.697837456</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>21346993.4411926</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>28857095.4928926</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>21002969.22135683</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7827221.157572574</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2351689.610427425</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-12452505.68196075</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-7685643.094694087</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-8257421.664494088</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-10085851.0533946</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-10551848.8816946</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-10413445.2257946</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-10427023.5851946</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-10222893.0567946</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-10042478.2662946</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-14239124.76356512</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-14953827.51886512</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-14718818.37986512</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-14602393.55406512</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-16135341.63145379</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-16641518.35485379</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-18 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 IOST ohlcv.xlsx
@@ -7542,7 +7542,7 @@
         <v>-8396112.290827177</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-8398588.025327178</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-8473790.461527176</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-8531068.842127176</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5972809.540737456</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>21346993.4411926</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>28857095.4928926</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>21002969.22135683</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>25580892.97812106</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7827221.157572574</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2351689.610427425</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-10085851.0533946</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-10551848.8816946</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-10413445.2257946</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-10427023.5851946</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-10222893.0567946</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-10042478.2662946</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-14239124.76356512</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-14953827.51886512</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-14718818.37986512</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-14602393.55406512</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-16135341.63145379</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-16641518.35485379</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
